--- a/LTspiceResults.xlsx
+++ b/LTspiceResults.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HARSH AGARWAL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CGU-notes\Computing-electronics\gitSpice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857194CF-D95A-4023-A89A-AA65335D3D79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05B25D-1C47-44B8-B1E4-21B7E7260772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{B94D2D7F-33B7-44CC-8880-4F920744D83A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="5" xr2:uid="{B94D2D7F-33B7-44CC-8880-4F920744D83A}"/>
   </bookViews>
   <sheets>
     <sheet name="LAB1-2" sheetId="2" r:id="rId1"/>
     <sheet name="Lab1-3" sheetId="3" r:id="rId2"/>
     <sheet name="Lab1-1" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Paper-simulation" sheetId="5" r:id="rId5"/>
+    <sheet name="PS-2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
   <si>
     <t>Direct Newton iteration for .op point succeeded.</t>
   </si>
@@ -335,12 +337,2394 @@
   <si>
     <t>.step w1=2.5e-005</t>
   </si>
+  <si>
+    <t>PDP</t>
+  </si>
+  <si>
+    <r>
+      <t>.step cval=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2e-014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.step cval=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3e-014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.step cval=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4e-014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.step cval=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.step cval=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.step cval=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7e-014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.step cval=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8e-014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.step cval=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9e-014</t>
+    </r>
+  </si>
+  <si>
+    <t>  step  delay FROM  TO</t>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>31311e-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>46311e-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>81369e-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>96369e-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>29882e-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>44882e-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>77661e-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>92661e-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25737e-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>40737e-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>73921e-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>88921e-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>22319e-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>37319e-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7243e-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5e-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8743e-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  step  AVG(v(vdd)*i(vdd)*-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) FROM  TO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67127e-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67095e-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67094e-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67041e-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67026e-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67069e-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67067e-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6705e-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6e-007</t>
+    </r>
+  </si>
+  <si>
+    <t>  step  (power*delay)</t>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>447e-016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>02854e-015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30365e-015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>57445e-015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>84701e-015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12039e-015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>39484e-015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67891e-015</t>
+    </r>
+  </si>
+  <si>
+    <t>.step cval=2e-014</t>
+  </si>
+  <si>
+    <t>.step cval=3e-014</t>
+  </si>
+  <si>
+    <t>.step cval=4e-014</t>
+  </si>
+  <si>
+    <t>.step cval=6e-014</t>
+  </si>
+  <si>
+    <t>.step cval=7e-014</t>
+  </si>
+  <si>
+    <t>.step cval=8e-014</t>
+  </si>
+  <si>
+    <t>.step cval=9e-014</t>
+  </si>
+  <si>
+    <t>AVG(v(vdd)*i(vdd)*-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     8  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,13 +2732,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -369,9 +2771,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3076,6 +5484,1214 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Paper-simulation'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Paper-simulation'!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9999999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000005E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9999999999999995E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Paper-simulation'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.31311E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.81369E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2988200000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.77661E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2573699999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7392100000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2231900000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7243000000000003E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-824D-4D09-9759-61FBFE2CB76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Paper-simulation'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Paper-simulation'!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9999999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000005E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9999999999999995E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Paper-simulation'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.4469999999999995E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0285399999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.30365E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.57445E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.84701E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1203900000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3948400000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.67891E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-824D-4D09-9759-61FBFE2CB76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402804431"/>
+        <c:axId val="403236111"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Paper-simulation'!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Paper-simulation'!$J$2:$J$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9999999999999998E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000002E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.9999999999999997E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.0000000000000005E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.9999999999999995E-14</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Paper-simulation'!$L$2:$L$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>5.6712700000000005E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.6709500000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.6709399999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.67041E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.6702600000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.6706900000000003E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.6706699999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.6705000000000004E-7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-824D-4D09-9759-61FBFE2CB76E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402804431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403236111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="403236111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402804431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PS-2'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PS-2'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9999999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000005E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9999999999999995E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PS-2'!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0148499999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.20148E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2015E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F39-4EE3-9C09-4F7D3FA24BAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PS-2'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PS-2'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9999999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000005E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9999999999999995E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PS-2'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.22544E-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6672299999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6672799999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F39-4EE3-9C09-4F7D3FA24BAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="413404479"/>
+        <c:axId val="405036271"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'PS-2'!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>power </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'PS-2'!$H$2:$H$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9999999999999998E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000002E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.9999999999999997E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.0000000000000005E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.9999999999999995E-14</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'PS-2'!$J$2:$J$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.0522700000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.0522700000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.0522599999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0522599999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.0522599999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.0522599999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.0522599999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.0522599999999998E-7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8F39-4EE3-9C09-4F7D3FA24BAE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="413404479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405036271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="405036271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413404479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3157,6 +6773,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4744,6 +8440,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4984,6 +9712,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEC5A02-2478-4897-AA5F-1AE13903D5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D645E28B-EF28-487B-B4B2-BCB8B627035D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30717E2-2C9A-448E-9E9D-33C8AFF0FD65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5303,7 +10113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B647628-1F7A-456F-8CEA-F43F3B36504D}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" workbookViewId="0">
+    <sheetView topLeftCell="B66" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -6275,8 +11085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24580C97-21F7-46F4-BF3D-F59AF9E97B59}">
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,7 +11185,7 @@
         <v>51</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I3:I47" si="0">0.00000025 + (ROW(I6)-2) * 0.00000005</f>
+        <f t="shared" ref="I6:I47" si="0">0.00000025 + (ROW(I6)-2) * 0.00000005</f>
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="J6" s="1">
@@ -8561,8 +13371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16F5CE-3A79-4E46-AFFD-8047662262AF}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10376,4 +15186,841 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97572A95-7F8B-40F6-90F8-0A8DCF8E0B03}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2E-14</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.31311E-9</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.6712700000000005E-7</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7.4469999999999995E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.9999999999999998E-14</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.81369E-9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.6709500000000001E-7</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.0285399999999999E-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4E-14</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.2988200000000001E-9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.6709399999999998E-7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.30365E-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.0000000000000002E-14</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.77661E-9</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.67041E-7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.57445E-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.9999999999999997E-14</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.2573699999999999E-9</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.6702600000000001E-7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.84701E-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.0000000000000005E-14</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.7392100000000004E-9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.6706900000000003E-7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.1203900000000001E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8E-14</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.2231900000000002E-9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.6706699999999998E-7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.3948400000000001E-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8.9999999999999995E-14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.7243000000000003E-9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5.6705000000000004E-7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.67891E-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE36FAB6-C423-460C-98AD-BB03C832AD97}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2E-14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.0148499999999997E-8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3.0522700000000001E-7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.22544E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.9999999999999998E-14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.20148E-7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.0522700000000001E-7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.6672299999999999E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4E-14</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.2015E-7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.6672799999999997E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.0000000000000002E-14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.9999999999999997E-14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.0000000000000005E-14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8E-14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8.9999999999999995E-14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.0148499999999997E-8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.5E-10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.0298500000000002E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.20148E-7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.5E-10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2029800000000001E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.2015E-7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.5E-10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.2030000000000001E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.5E-10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.5E-10</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.5E-10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.5E-10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.5E-10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.0522700000000001E-7</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.0522700000000001E-7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3.0522599999999998E-7</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.22544E-14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3.6672299999999999E-14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3.6672799999999997E-14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>